--- a/Time schedule.xlsx
+++ b/Time schedule.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b6910f394fa07af/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local Disk (D)\informationTechnologyP2\Project_support_desk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D19698-1429-4261-93F2-447CDBB12944}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA5B01-3D27-4A9E-AFF3-26D833C77AA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -124,7 +124,10 @@
     <t>prepare interview client</t>
   </si>
   <si>
-    <t>Look through team code</t>
+    <t>Taking the minutes</t>
+  </si>
+  <si>
+    <t>editing the minutes</t>
   </si>
 </sst>
 </file>
@@ -841,24 +844,24 @@
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="1">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="1">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12">
         <v>43574</v>
@@ -890,7 +893,7 @@
       <c r="O1" s="13"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
         <v>7</v>
@@ -922,7 +925,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -972,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -995,7 +998,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="8"/>
       <c r="E6" s="8"/>
@@ -1022,7 +1025,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
@@ -1064,7 +1067,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1085,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
@@ -1093,7 +1096,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="8"/>
       <c r="E10" s="8"/>
@@ -1104,7 +1107,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
@@ -1146,7 +1149,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1162,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
@@ -1170,7 +1173,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8"/>
@@ -1181,7 +1184,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1241,7 +1244,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
@@ -1252,7 +1255,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
@@ -1263,7 +1266,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -1305,7 +1308,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1323,7 +1326,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
@@ -1335,11 +1338,11 @@
         <v>29</v>
       </c>
       <c r="O21" s="8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
@@ -1347,10 +1350,15 @@
       <c r="I22" s="8"/>
       <c r="K22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.25</v>
+      </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4">
@@ -1392,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1418,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
@@ -1421,7 +1429,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
@@ -1432,7 +1440,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4">
@@ -1487,25 +1495,25 @@
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView topLeftCell="A16" workbookViewId="1">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12">
         <v>43581</v>
@@ -1537,7 +1545,7 @@
       <c r="O1" s="13"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
         <v>7</v>
@@ -1569,7 +1577,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1641,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
@@ -1645,7 +1653,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="8"/>
       <c r="E6" s="8"/>
@@ -1657,7 +1665,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
@@ -1699,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1721,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
@@ -1725,7 +1733,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="8"/>
       <c r="E10" s="8"/>
@@ -1737,7 +1745,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
@@ -1779,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1793,7 +1801,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
@@ -1805,7 +1813,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8"/>
@@ -1817,7 +1825,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
@@ -1859,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1873,7 +1881,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
@@ -1885,7 +1893,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
@@ -1897,7 +1905,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -1939,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1953,7 +1961,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
@@ -1965,7 +1973,7 @@
       <c r="O21" s="8"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
@@ -1977,7 +1985,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4">
@@ -2019,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2033,7 +2041,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
@@ -2045,7 +2053,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
@@ -2057,7 +2065,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4">
@@ -2109,19 +2117,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
     <sheetView workbookViewId="1">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="35"/>
       <c r="B1" s="27" t="s">
         <v>14</v>
@@ -2151,7 +2159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
@@ -2220,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>23</v>
       </c>
@@ -2243,7 +2251,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>24</v>
       </c>
@@ -2266,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>25</v>
       </c>
@@ -2305,20 +2313,20 @@
       <selection activeCell="A27" sqref="A16:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -2336,7 +2344,7 @@
       <c r="O1" s="13"/>
       <c r="P1" s="14"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
         <v>7</v>
@@ -2368,7 +2376,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2438,7 @@
       <c r="M4" s="7"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
@@ -2440,7 +2448,7 @@
       <c r="M5" s="8"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="8"/>
       <c r="E6" s="8"/>
@@ -2450,7 +2458,7 @@
       <c r="M6" s="8"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
@@ -2492,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2504,7 +2512,7 @@
       <c r="M8" s="8"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
@@ -2514,7 +2522,7 @@
       <c r="M9" s="8"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="8"/>
       <c r="E10" s="8"/>
@@ -2524,7 +2532,7 @@
       <c r="M10" s="8"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
@@ -2566,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2586,7 @@
       <c r="M12" s="8"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
@@ -2588,7 +2596,7 @@
       <c r="M13" s="8"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8"/>
@@ -2598,7 +2606,7 @@
       <c r="M14" s="8"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
@@ -2640,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2652,7 +2660,7 @@
       <c r="M16" s="8"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
@@ -2662,7 +2670,7 @@
       <c r="M17" s="8"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
@@ -2672,7 +2680,7 @@
       <c r="M18" s="8"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4">
@@ -2714,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2726,7 +2734,7 @@
       <c r="M20" s="8"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
@@ -2736,7 +2744,7 @@
       <c r="M21" s="8"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
@@ -2746,7 +2754,7 @@
       <c r="M22" s="8"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4">
@@ -2788,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2800,7 +2808,7 @@
       <c r="M24" s="8"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
@@ -2810,7 +2818,7 @@
       <c r="M25" s="8"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
@@ -2820,7 +2828,7 @@
       <c r="M26" s="8"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4">

--- a/Time schedule.xlsx
+++ b/Time schedule.xlsx
@@ -1,41 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Local Disk (D)\informationTechnologyP2\Project_support_desk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Documents\GitHub\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA5B01-3D27-4A9E-AFF3-26D833C77AA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Week 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Total" sheetId="4" r:id="rId3"/>
-    <sheet name="Template" sheetId="3" r:id="rId4"/>
+    <sheet name="May Vacation" sheetId="2" r:id="rId2"/>
+    <sheet name="Week 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Week 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Week 4" sheetId="7" r:id="rId5"/>
+    <sheet name="Week 5" sheetId="8" r:id="rId6"/>
+    <sheet name="Week 6" sheetId="9" r:id="rId7"/>
+    <sheet name="Week 7" sheetId="10" r:id="rId8"/>
+    <sheet name="Week 8" sheetId="11" r:id="rId9"/>
+    <sheet name="Week 9" sheetId="12" r:id="rId10"/>
+    <sheet name="Total" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +46,6 @@
   </si>
   <si>
     <t>Monday</t>
-  </si>
-  <si>
-    <t>Thuesday</t>
   </si>
   <si>
     <t>Wednessday</t>
@@ -71,9 +67,6 @@
   </si>
   <si>
     <t>Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jonathan Mohammed</t>
   </si>
   <si>
     <t>Total hours</t>
@@ -129,11 +122,56 @@
   <si>
     <t>editing the minutes</t>
   </si>
+  <si>
+    <t>Print &amp; discuss team code</t>
+  </si>
+  <si>
+    <t>Distribute roles</t>
+  </si>
+  <si>
+    <t>May Vacation</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>List activities</t>
+  </si>
+  <si>
+    <t>Helped with Team code</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Edited team code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looking through team code </t>
+  </si>
+  <si>
+    <t>Arrange meeting Victor</t>
+  </si>
+  <si>
+    <t>Look through minutes</t>
+  </si>
+  <si>
+    <t>Working on planning</t>
+  </si>
+  <si>
+    <t>Working on project activities</t>
+  </si>
+  <si>
+    <t>Prepare questions for client</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonathan Mohamed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -399,15 +437,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -425,17 +454,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,12 +524,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -547,21 +602,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,14 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="1">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +929,7 @@
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -896,31 +970,31 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
-        <v>4</v>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="18"/>
@@ -930,49 +1004,49 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -984,14 +1058,14 @@
       <c r="G4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7">
         <v>0.75</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O4" s="7">
         <v>0.5</v>
@@ -1007,7 +1081,7 @@
       <c r="K5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O5" s="8">
         <v>0.5</v>
@@ -1068,17 +1142,27 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="A8" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8"/>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="44">
+        <v>0.3</v>
+      </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O8" s="7">
         <v>0.5</v>
@@ -1132,12 +1216,12 @@
       <c r="J11" s="3"/>
       <c r="K11" s="4">
         <f>SUM(K8:K10)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4">
         <f>SUM(M8:M10)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="4">
@@ -1146,7 +1230,7 @@
       </c>
       <c r="P11" s="6">
         <f>SUM(C11:O11)</f>
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1157,8 +1241,10 @@
       <c r="E12" s="8"/>
       <c r="G12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
       <c r="O12" s="7"/>
       <c r="P12" s="5"/>
     </row>
@@ -1228,7 +1314,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="8"/>
@@ -1237,7 +1323,7 @@
       <c r="K16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O16" s="7">
         <v>0.5</v>
@@ -1310,7 +1396,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
@@ -1319,7 +1405,7 @@
       <c r="K20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O20" s="7">
         <v>0.5</v>
@@ -1334,11 +1420,11 @@
       <c r="I21" s="8"/>
       <c r="K21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0.25</v>
+      <c r="N21" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="44">
+        <v>0.5</v>
       </c>
       <c r="P21" s="5"/>
     </row>
@@ -1350,12 +1436,7 @@
       <c r="I22" s="8"/>
       <c r="K22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0.25</v>
-      </c>
+      <c r="O22" s="8"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1402,7 +1483,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
@@ -1411,7 +1492,7 @@
       <c r="K24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O24" s="7">
         <v>0.5</v>
@@ -1426,7 +1507,12 @@
       <c r="I25" s="8"/>
       <c r="K25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="N25" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="42">
+        <v>0.25</v>
+      </c>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1437,7 +1523,12 @@
       <c r="I26" s="8"/>
       <c r="K26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="N26" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="42">
+        <v>0.25</v>
+      </c>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1475,11 +1566,11 @@
       <c r="N27" s="3"/>
       <c r="O27" s="4">
         <f>SUM(O24:O26)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P27" s="6">
         <f>SUM(C27:O27)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1488,15 +1579,983 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
-    <sheetView topLeftCell="A16" workbookViewId="1">
-      <selection activeCell="D30" sqref="D30"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
+        <v>43637</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="38">
+        <v>43638</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43639</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43640</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43641</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43642</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43643</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f>SUM(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <f>SUM(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <f>SUM(M4:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>SUM(C7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <f>SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <f>SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>SUM(C11:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <f>SUM(I12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <f>SUM(M12:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <f>SUM(O12:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <f>SUM(C15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <f>SUM(I16:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
+        <f>SUM(K16:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <f>SUM(M16:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <f>SUM(O16:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <f>SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f>SUM(O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f>SUM(C23:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <f>SUM(E24:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4">
+        <f>SUM(G24:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24">
+        <f>'Week 1'!P7</f>
+        <v>1.75</v>
+      </c>
+      <c r="C2" s="25">
+        <f>'May Vacation'!P7</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="25">
+        <f>'Week 2'!P7</f>
+        <v>4.75</v>
+      </c>
+      <c r="E2" s="25">
+        <f>'Week 3'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
+        <f>'Week 4'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="25">
+        <f>'Week 5'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
+        <f>'Week 6'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <f>'Week 7'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="25">
+        <f>'Week 8'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <f>'Week 9'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="29">
+        <f>SUM(B2:K2)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9">
+        <f>'Week 1'!P11</f>
+        <v>1.55</v>
+      </c>
+      <c r="C3" s="26">
+        <f>'May Vacation'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <f>'Week 2'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <f>'Week 3'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>'Week 4'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <f>'Week 5'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="26">
+        <f>'Week 6'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <f>'Week 7'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <f>'Week 8'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <f>'Week 9'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="30">
+        <f t="shared" ref="L3:L7" si="0">SUM(B3:K3)</f>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <f>'Week 1'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <f>'May Vacation'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <f>'Week 2'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <f>'Week 3'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <f>'Week 4'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <f>'Week 5'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <f>'Week 6'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
+        <f>'Week 7'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <f>'Week 8'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <f>'Week 9'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <f>'Week 1'!P19</f>
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="26">
+        <f>'May Vacation'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <f>'Week 2'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <f>'Week 3'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <f>'Week 4'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
+        <f>'Week 5'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <f>'Week 6'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <f>'Week 7'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <f>'Week 8'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f>'Week 9'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <f>'Week 1'!P23</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="26">
+        <f>'May Vacation'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <f>'Week 2'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <f>'Week 3'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <f>'Week 4'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <f>'Week 5'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <f>'Week 6'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <f>'Week 7'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <f>'Week 8'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <f>'Week 9'!P23</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="45">
+        <f>'Week 1'!P27</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="46">
+        <f>'May Vacation'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="46">
+        <f>'Week 2'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="46">
+        <f>'Week 3'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="46">
+        <f>'Week 4'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="46">
+        <f>'Week 5'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="46">
+        <f>'Week 6'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="46">
+        <f>'Week 7'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <f>'Week 8'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="47">
+        <f>'Week 9'!P27</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,31 +2607,31 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
-        <v>4</v>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="18"/>
@@ -1582,49 +2641,1330 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f>SUM(C4:C6)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f>SUM(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <f>SUM(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <f>SUM(M4:M6)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>SUM(C7:O7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <f>SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <f>SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>SUM(C11:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <f>SUM(I12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <f>SUM(M12:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <f>SUM(O12:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <f>SUM(C15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <f>SUM(I16:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
+        <f>SUM(K16:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <f>SUM(M16:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <f>SUM(O16:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <f>SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f>SUM(O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f>SUM(C23:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <f>SUM(E24:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4">
+        <f>SUM(G24:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
+        <v>43588</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="38">
+        <v>43589</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43590</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43591</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43592</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43593</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43594</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f>SUM(E4:E6)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <f>SUM(G4:G6)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <f>SUM(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <f>SUM(M4:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>SUM(C7:O7)</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <f>SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <f>SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>SUM(C11:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <f>SUM(I12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <f>SUM(M12:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <f>SUM(O12:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <f>SUM(C15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <f>SUM(I16:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
+        <f>SUM(K16:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <f>SUM(M16:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <f>SUM(O16:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <f>SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f>SUM(O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f>SUM(C23:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <f>SUM(E24:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4">
+        <f>SUM(G24:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
+        <v>43595</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="38">
+        <v>43596</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43597</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43598</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43599</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43600</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43601</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1708,8 +4048,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="A8" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8"/>
@@ -1869,7 +4209,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="8"/>
@@ -1949,7 +4289,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
@@ -2029,7 +4369,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
@@ -2113,265 +4453,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24">
-        <f>'Week 1'!P7</f>
-        <v>1.75</v>
-      </c>
-      <c r="C2" s="25">
-        <f>'Week 2'!P7</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="30">
-        <f>SUM(B2:I2)</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9">
-        <f>'Week 1'!P11</f>
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="26">
-        <f>'Week 2'!P11</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="31">
-        <f t="shared" ref="J3:J7" si="0">SUM(B3:I3)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <f>'Week 1'!P15</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
-        <f>'Week 2'!P15</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="9">
-        <f>'Week 1'!P19</f>
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="26">
-        <f>'Week 2'!P19</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="31">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9">
-        <f>'Week 1'!P23</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <f>'Week 2'!P23</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="32">
-        <f>'Week 1'!P27</f>
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="33">
-        <f>'Week 2'!P27</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="34">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A27" sqref="A16:A27"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="12">
+        <v>43602</v>
+      </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
+      <c r="D1" s="38">
+        <v>43603</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43604</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43605</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43606</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43607</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43608</v>
+      </c>
+      <c r="O1" s="39"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
-        <v>4</v>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="18"/>
@@ -2381,49 +4544,49 @@
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2432,30 +4595,36 @@
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="I4" s="7"/>
       <c r="K4" s="7"/>
       <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="8"/>
       <c r="I5" s="8"/>
       <c r="K5" s="8"/>
       <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="C6" s="8"/>
       <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="8"/>
       <c r="I6" s="8"/>
       <c r="K6" s="8"/>
       <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2470,7 +4639,7 @@
         <f>SUM(E4:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="4">
         <f>SUM(G4:G6)</f>
         <v>0</v>
@@ -2491,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="3">
+      <c r="O7" s="4">
         <f>SUM(O4:O6)</f>
         <v>0</v>
       </c>
@@ -2501,35 +4670,41 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
+      <c r="A8" s="48" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="8"/>
       <c r="I8" s="8"/>
       <c r="K8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="8"/>
       <c r="I9" s="8"/>
       <c r="K9" s="8"/>
       <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="C10" s="8"/>
       <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="8"/>
       <c r="I10" s="8"/>
       <c r="K10" s="8"/>
       <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2544,7 +4719,7 @@
         <f>SUM(E8:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="4">
         <f>SUM(G8:G10)</f>
         <v>0</v>
@@ -2565,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="3">
+      <c r="O11" s="4">
         <f>SUM(O8:O10)</f>
         <v>0</v>
       </c>
@@ -2580,30 +4755,36 @@
       </c>
       <c r="C12" s="8"/>
       <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="8"/>
       <c r="I12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="C13" s="8"/>
       <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="8"/>
       <c r="I13" s="8"/>
       <c r="K13" s="8"/>
       <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="C14" s="8"/>
       <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="8"/>
       <c r="I14" s="8"/>
       <c r="K14" s="8"/>
       <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2618,7 +4799,7 @@
         <f>SUM(E12:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="4">
         <f>SUM(G12:G14)</f>
         <v>0</v>
@@ -2639,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="3">
+      <c r="O15" s="4">
         <f>SUM(O12:O14)</f>
         <v>0</v>
       </c>
@@ -2650,34 +4831,40 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="8"/>
       <c r="I16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="8"/>
       <c r="I17" s="8"/>
       <c r="K17" s="8"/>
       <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="8"/>
       <c r="I18" s="8"/>
       <c r="K18" s="8"/>
       <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2692,7 +4879,7 @@
         <f>SUM(E16:E18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="4">
         <f>SUM(G16:G18)</f>
         <v>0</v>
@@ -2713,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="3">
+      <c r="O19" s="4">
         <f>SUM(O16:O18)</f>
         <v>0</v>
       </c>
@@ -2724,34 +4911,40 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="8"/>
       <c r="I20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="8"/>
       <c r="I21" s="8"/>
       <c r="K21" s="8"/>
       <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="8"/>
       <c r="I22" s="8"/>
       <c r="K22" s="8"/>
       <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2766,7 +4959,7 @@
         <f>SUM(E20:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="4">
         <f>SUM(G20:G22)</f>
         <v>0</v>
@@ -2787,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="3">
+      <c r="O23" s="4">
         <f>SUM(O20:O22)</f>
         <v>0</v>
       </c>
@@ -2798,34 +4991,40 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="8"/>
       <c r="I24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="8"/>
       <c r="I25" s="8"/>
       <c r="K25" s="8"/>
       <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="8"/>
       <c r="I26" s="8"/>
       <c r="K26" s="8"/>
       <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2840,7 +5039,7 @@
         <f>SUM(E24:E26)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="4">
         <f>SUM(G24:G26)</f>
         <v>0</v>
@@ -2861,7 +5060,2495 @@
         <v>0</v>
       </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="3">
+      <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
+        <v>43609</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="38">
+        <v>43610</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43611</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43612</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43613</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43614</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43615</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f>SUM(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <f>SUM(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <f>SUM(M4:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>SUM(C7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <f>SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <f>SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>SUM(C11:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <f>SUM(I12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <f>SUM(M12:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <f>SUM(O12:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <f>SUM(C15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <f>SUM(I16:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
+        <f>SUM(K16:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <f>SUM(M16:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <f>SUM(O16:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <f>SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f>SUM(O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f>SUM(C23:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <f>SUM(E24:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4">
+        <f>SUM(G24:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
+        <v>43616</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="38">
+        <v>43617</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43618</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43619</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43620</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43621</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43622</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f>SUM(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <f>SUM(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <f>SUM(M4:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>SUM(C7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <f>SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <f>SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>SUM(C11:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <f>SUM(I12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <f>SUM(M12:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <f>SUM(O12:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <f>SUM(C15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <f>SUM(I16:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
+        <f>SUM(K16:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <f>SUM(M16:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <f>SUM(O16:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <f>SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f>SUM(O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f>SUM(C23:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <f>SUM(E24:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4">
+        <f>SUM(G24:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
+        <v>43623</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="38">
+        <v>43624</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43625</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43626</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43627</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43628</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43629</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f>SUM(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <f>SUM(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <f>SUM(M4:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>SUM(C7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <f>SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <f>SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>SUM(C11:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <f>SUM(I12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <f>SUM(M12:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <f>SUM(O12:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <f>SUM(C15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <f>SUM(I16:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
+        <f>SUM(K16:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <f>SUM(M16:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <f>SUM(O16:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <f>SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f>SUM(O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f>SUM(C23:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <f>SUM(E24:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4">
+        <f>SUM(G24:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f>SUM(C27:O27)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12">
+        <v>43630</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="38">
+        <v>43631</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="38">
+        <v>43632</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="38">
+        <v>43633</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38">
+        <v>43634</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="38">
+        <v>43635</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="38">
+        <v>43636</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <f>SUM(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <f>SUM(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="4">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <f>SUM(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <f>SUM(K4:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <f>SUM(M4:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4">
+        <f>SUM(O4:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>SUM(C7:O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <f>SUM(C8:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4">
+        <f>SUM(G8:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <f>SUM(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
+        <f>SUM(K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <f>SUM(M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4">
+        <f>SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f>SUM(C11:O11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <f>SUM(C12:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4">
+        <f>SUM(E12:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="4">
+        <f>SUM(G12:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <f>SUM(I12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
+        <f>SUM(K12:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <f>SUM(M12:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4">
+        <f>SUM(O12:O14)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <f>SUM(C15:O15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="M16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4">
+        <f>SUM(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4">
+        <f>SUM(E16:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="4">
+        <f>SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <f>SUM(I16:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
+        <f>SUM(K16:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <f>SUM(M16:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4">
+        <f>SUM(O16:O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f>SUM(C19:O19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="5"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4">
+        <f>SUM(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4">
+        <f>SUM(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="4">
+        <f>SUM(G20:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4">
+        <f>SUM(I20:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
+        <f>SUM(K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4">
+        <f>SUM(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4">
+        <f>SUM(O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f>SUM(C23:O23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4">
+        <f>SUM(E24:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="4">
+        <f>SUM(G24:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4">
         <f>SUM(O24:O26)</f>
         <v>0</v>
       </c>

--- a/Time schedule.xlsx
+++ b/Time schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Documents\GitHub\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{786877FB-E394-4C2E-B548-1A9CD38A29BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,23 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Total" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -167,11 +174,14 @@
   <si>
     <t xml:space="preserve"> Jonathan Mohamed</t>
   </si>
+  <si>
+    <t>Work on quality control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -915,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1580,7 +1590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2202,10 +2212,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -2412,7 +2422,7 @@
       </c>
       <c r="D5" s="26">
         <f>'Week 2'!P19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="26">
         <f>'Week 3'!P19</f>
@@ -2444,7 +2454,7 @@
       </c>
       <c r="L5" s="30">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2551,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,11 +3198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,8 +3604,18 @@
       <c r="F16" s="9"/>
       <c r="G16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="M16" s="7"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.5</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="5"/>
     </row>
@@ -3648,12 +3668,12 @@
       <c r="J19" s="3"/>
       <c r="K19" s="4">
         <f>SUM(K16:K18)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="4">
         <f>SUM(M16:M18)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="4">
@@ -3662,7 +3682,7 @@
       </c>
       <c r="P19" s="6">
         <f>SUM(C19:O19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3832,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4454,7 +4474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5076,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5698,7 +5718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6320,7 +6340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6942,7 +6962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Time schedule.xlsx
+++ b/Time schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solomon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{786877FB-E394-4C2E-B548-1A9CD38A29BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DE126-CB9A-436F-940C-990872A3C336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Work on quality control</t>
+  </si>
+  <si>
+    <t>did my part for the project plan</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2516,7 +2519,7 @@
       </c>
       <c r="C7" s="46">
         <f>'May Vacation'!P27</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="46">
         <f>'Week 2'!P27</f>
@@ -2552,7 +2555,7 @@
       </c>
       <c r="L7" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -2564,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,6 +3125,9 @@
       <c r="I24" s="8"/>
       <c r="K24" s="8"/>
       <c r="M24" s="7"/>
+      <c r="N24" t="s">
+        <v>45</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="5"/>
     </row>
@@ -3183,12 +3189,11 @@
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="4">
-        <f>SUM(O24:O26)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P27" s="6">
         <f>SUM(C27:O27)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -3201,7 +3206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>

--- a/Time schedule.xlsx
+++ b/Time schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solomon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Documents\GitHub\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DE126-CB9A-436F-940C-990872A3C336}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Total" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -180,11 +179,20 @@
   <si>
     <t>did my part for the project plan</t>
   </si>
+  <si>
+    <t>Prepare meeting client</t>
+  </si>
+  <si>
+    <t>Artem Dvoiiakovskyi</t>
+  </si>
+  <si>
+    <t>Mukhitdin Iakhiarov</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,13 +570,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -647,11 +657,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -928,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,13 +1423,19 @@
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="43" t="s">
         <v>25</v>
       </c>
       <c r="O20" s="7">
@@ -1427,12 +1445,18 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="43" t="s">
         <v>37</v>
       </c>
@@ -1443,13 +1467,20 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1498,13 +1529,19 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="43" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="7">
@@ -1514,32 +1551,44 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="41" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="44">
         <v>0.25</v>
       </c>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="41" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="44">
         <v>0.25</v>
       </c>
       <c r="P26" s="5"/>
@@ -1584,6 +1633,163 @@
       <c r="P27" s="6">
         <f>SUM(C27:O27)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="C34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1593,11 +1799,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A28" sqref="A28:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,6 +2414,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2215,11 +2635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,7 +2698,7 @@
       </c>
       <c r="D2" s="25">
         <f>'Week 2'!P7</f>
-        <v>4.75</v>
+        <v>6.75</v>
       </c>
       <c r="E2" s="25">
         <f>'Week 3'!P7</f>
@@ -2310,7 +2730,7 @@
       </c>
       <c r="L2" s="29">
         <f>SUM(B2:K2)</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2358,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="30">
-        <f t="shared" ref="L3:L7" si="0">SUM(B3:K3)</f>
+        <f t="shared" ref="L3:L5" si="0">SUM(B3:K3)</f>
         <v>1.55</v>
       </c>
     </row>
@@ -2505,57 +2925,155 @@
         <v>0</v>
       </c>
       <c r="L6" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:K6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="9">
         <f>'Week 1'!P27</f>
         <v>1</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="26">
         <f>'May Vacation'!P27</f>
         <v>1.5</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="26">
         <f>'Week 2'!P27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="26">
         <f>'Week 3'!P27</f>
         <v>0</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="26">
         <f>'Week 4'!P27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="26">
         <f>'Week 5'!P27</f>
         <v>0</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="26">
         <f>'Week 6'!P27</f>
         <v>0</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="26">
         <f>'Week 7'!P27</f>
         <v>0</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="26">
         <f>'Week 8'!P27</f>
         <v>0</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="44">
         <f>'Week 9'!P27</f>
         <v>0</v>
       </c>
-      <c r="L7" s="31">
-        <f t="shared" si="0"/>
+      <c r="L7" s="30">
+        <f>SUM(B7:K7)</f>
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="9">
+        <f>'Week 1'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="26">
+        <f>'May Vacation'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <f>'Week 2'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <f>'Week 3'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <f>'Week 4'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <f>'Week 5'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <f>'Week 6'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <f>'Week 7'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <f>'Week 8'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
+        <f>'Week 9'!P31</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" ref="L8:L9" si="1">SUM(B8:K8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="45">
+        <f>'Week 1'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="46">
+        <f>'May Vacation'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="46">
+        <f>'Week 2'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="46">
+        <f>'Week 3'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="46">
+        <f>'Week 4'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="46">
+        <f>'Week 5'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="46">
+        <f>'Week 6'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="46">
+        <f>'Week 7'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="46">
+        <f>'Week 8'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="47">
+        <f>'Week 9'!P35</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2564,11 +3082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,7 +3099,7 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3128,7 +3646,9 @@
       <c r="N24" t="s">
         <v>45</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="7">
+        <v>1.5</v>
+      </c>
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -3189,12 +3709,227 @@
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="4">
+        <f>SUM(O24:O26)</f>
         <v>1.5</v>
       </c>
       <c r="P27" s="6">
         <f>SUM(C27:O27)</f>
         <v>1.5</v>
       </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3203,11 +3938,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,9 +3952,9 @@
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3355,9 +4090,20 @@
       <c r="G4" s="8">
         <v>0.25</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.5</v>
+      </c>
       <c r="K4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="43"/>
       <c r="O4" s="7"/>
       <c r="P4" s="5"/>
     </row>
@@ -3378,7 +4124,12 @@
       </c>
       <c r="I5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="44">
+        <v>1</v>
+      </c>
       <c r="O5" s="8"/>
       <c r="P5" s="5"/>
     </row>
@@ -3394,7 +4145,8 @@
       </c>
       <c r="I6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
       <c r="O6" s="8"/>
       <c r="P6" s="5"/>
     </row>
@@ -3418,7 +4170,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="4">
         <f>SUM(I4:I6)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="4">
@@ -3428,7 +4180,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="4">
         <f>SUM(M4:M6)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="4">
@@ -3437,7 +4189,7 @@
       </c>
       <c r="P7" s="6">
         <f>SUM(C7:O7)</f>
-        <v>4.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3850,6 +4602,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3857,11 +4823,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A28" sqref="A28:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,6 +5438,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4479,11 +5659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A28" sqref="A28:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,6 +6274,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5101,11 +6495,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5716,6 +7110,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5723,11 +7331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A28" sqref="A28:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6338,6 +7946,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6345,11 +8167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A28" sqref="A28:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6960,6 +8782,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6967,11 +9003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A28" sqref="A28:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7582,6 +9618,220 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4">
+        <f>SUM(C28:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4">
+        <f>SUM(E28:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <f>SUM(G28:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4">
+        <f>SUM(I28:I30)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
+        <f>SUM(K28:K30)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4">
+        <f>SUM(M28:M30)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4">
+        <f>SUM(O28:O30)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f>SUM(C31:O31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="5"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4">
+        <f>SUM(C32:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <f>SUM(G32:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4">
+        <f>SUM(I32:I34)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
+        <f>SUM(K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4">
+        <f>SUM(M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4">
+        <f>SUM(O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <f>SUM(C35:O35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time schedule.xlsx
+++ b/Time schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Documents\GitHub\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\HBO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05F9DEA-7A85-4CDC-B9D7-94D4598E18C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Total" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -188,11 +189,14 @@
   <si>
     <t>Mukhitdin Iakhiarov</t>
   </si>
+  <si>
+    <t>Research for quality control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1799,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2635,11 +2639,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,11 +2845,11 @@
       </c>
       <c r="C5" s="26">
         <f>'May Vacation'!P19</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="26">
         <f>'Week 2'!P19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="26">
         <f>'Week 3'!P19</f>
@@ -2877,7 +2881,7 @@
       </c>
       <c r="L5" s="30">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3082,11 +3086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,7 +3487,12 @@
       <c r="I16" s="8"/>
       <c r="K16" s="8"/>
       <c r="M16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.5</v>
+      </c>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -3545,11 +3554,11 @@
       <c r="N19" s="3"/>
       <c r="O19" s="4">
         <f>SUM(O16:O18)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P19" s="6">
         <f>SUM(C19:O19)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -3938,11 +3947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4371,7 +4380,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="5"/>
@@ -4384,7 +4393,12 @@
       <c r="G17" s="8"/>
       <c r="I17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.5</v>
+      </c>
       <c r="O17" s="8"/>
       <c r="P17" s="5"/>
     </row>
@@ -4430,7 +4444,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="4">
         <f>SUM(M16:M18)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="4">
@@ -4439,7 +4453,7 @@
       </c>
       <c r="P19" s="6">
         <f>SUM(C19:O19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -4823,7 +4837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5659,7 +5673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6495,7 +6509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7331,7 +7345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8167,7 +8181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9003,7 +9017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Time schedule.xlsx
+++ b/Time schedule.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\HBO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05F9DEA-7A85-4CDC-B9D7-94D4598E18C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="Week 9" sheetId="12" r:id="rId10"/>
     <sheet name="Total" sheetId="4" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -192,11 +191,26 @@
   <si>
     <t>Research for quality control</t>
   </si>
+  <si>
+    <t>boundaries part</t>
+  </si>
+  <si>
+    <t>work on visual design</t>
+  </si>
+  <si>
+    <t>work visual design</t>
+  </si>
+  <si>
+    <t>start developing main page fot visual design</t>
+  </si>
+  <si>
+    <t>start developing page for visual design</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,8 +680,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="40% — акцент3" xfId="1" builtinId="39"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -944,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,7 +1817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,10 +2653,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3041,19 +3055,19 @@
       </c>
       <c r="C9" s="46">
         <f>'May Vacation'!P35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="46">
         <f>'Week 2'!P35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="46">
         <f>'Week 3'!P35</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="46">
         <f>'Week 4'!P35</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" s="46">
         <f>'Week 5'!P35</f>
@@ -3077,7 +3091,7 @@
       </c>
       <c r="L9" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3086,11 +3100,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,8 +3854,12 @@
       <c r="K32" s="44"/>
       <c r="L32" s="43"/>
       <c r="M32" s="44"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="7"/>
+      <c r="N32" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="7">
+        <v>1</v>
+      </c>
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -3915,11 +3933,11 @@
       <c r="N35" s="3"/>
       <c r="O35" s="4">
         <f>SUM(O32:O34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="6">
         <f>SUM(C35:O35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3947,11 +3965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4726,8 +4744,12 @@
       <c r="G32" s="44"/>
       <c r="H32" s="43"/>
       <c r="I32" s="44"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
+      <c r="J32" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="44">
+        <v>1</v>
+      </c>
       <c r="L32" s="43"/>
       <c r="M32" s="44"/>
       <c r="N32" s="43"/>
@@ -4795,7 +4817,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="4">
         <f>SUM(K32:K34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="4">
@@ -4809,7 +4831,7 @@
       </c>
       <c r="P35" s="6">
         <f>SUM(C35:O35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -4837,11 +4859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:P36"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,12 +5576,20 @@
       <c r="A32" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="44">
+        <v>1</v>
+      </c>
       <c r="D32" s="43"/>
       <c r="E32" s="44"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="44">
+        <v>1</v>
+      </c>
       <c r="H32" s="43"/>
       <c r="I32" s="44"/>
       <c r="J32" s="43"/>
@@ -5611,7 +5641,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="4">
         <f>SUM(C32:C34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4">
@@ -5621,7 +5651,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4">
         <f>SUM(G32:G34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="4">
@@ -5645,7 +5675,7 @@
       </c>
       <c r="P35" s="6">
         <f>SUM(C35:O35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5673,11 +5703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:P36"/>
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6390,12 +6420,20 @@
       <c r="A32" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="44">
+        <v>3</v>
+      </c>
       <c r="D32" s="43"/>
       <c r="E32" s="44"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
+      <c r="F32" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="44">
+        <v>3</v>
+      </c>
       <c r="H32" s="43"/>
       <c r="I32" s="44"/>
       <c r="J32" s="43"/>
@@ -6447,7 +6485,7 @@
       <c r="B35" s="3"/>
       <c r="C35" s="4">
         <f>SUM(C32:C34)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4">
@@ -6457,7 +6495,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="4">
         <f>SUM(G32:G34)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="4">
@@ -6481,7 +6519,7 @@
       </c>
       <c r="P35" s="6">
         <f>SUM(C35:O35)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -6509,10 +6547,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -7345,7 +7383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8181,7 +8219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9017,7 +9055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
